--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\Third_Year\CMP_2023\First_Term\VLSI\Project\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\VLSI\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A08FBA0-F65B-43B8-A95E-C0933CB55B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B36EB-0F86-4B7D-B4D1-98DFE5EB29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Verilog *</t>
   </si>
@@ -67,19 +67,37 @@
   </si>
   <si>
     <t>0/128</t>
+  </si>
+  <si>
+    <t>0/223</t>
+  </si>
+  <si>
+    <t>0/263</t>
+  </si>
+  <si>
+    <t>0/184</t>
+  </si>
+  <si>
+    <t>0/319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,13 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -125,6 +146,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673EC04A-F1D7-25B4-7091-513B26797BD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,25 +469,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -437,8 +518,20 @@
       <c r="C2">
         <v>0.183</v>
       </c>
+      <c r="D2">
+        <v>2.7262</v>
+      </c>
+      <c r="E2">
+        <v>2.2953000000000001</v>
+      </c>
+      <c r="F2">
+        <v>2.0716999999999999</v>
+      </c>
+      <c r="G2">
+        <v>2.2700999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -448,8 +541,18 @@
       <c r="C3">
         <v>3.1080000000000001</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3">
+        <v>2.3151000000000002</v>
+      </c>
+      <c r="F3">
+        <v>2.0909</v>
+      </c>
+      <c r="G3">
+        <v>2.3041999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -459,8 +562,20 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -470,8 +585,20 @@
       <c r="C5">
         <v>5257.5092777</v>
       </c>
+      <c r="D5">
+        <v>355.8</v>
+      </c>
+      <c r="E5">
+        <v>734.88586399999997</v>
+      </c>
+      <c r="F5">
+        <v>1471.383057</v>
+      </c>
+      <c r="G5">
+        <v>1138.701294</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -481,8 +608,20 @@
       <c r="C6">
         <v>8825</v>
       </c>
+      <c r="D6">
+        <v>2622</v>
+      </c>
+      <c r="E6">
+        <v>1455</v>
+      </c>
+      <c r="F6">
+        <v>3183</v>
+      </c>
+      <c r="G6">
+        <v>1615</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -492,8 +631,20 @@
       <c r="C7">
         <v>9509.23</v>
       </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,10 +654,52 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="34.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="34.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>